--- a/Models.xlsx
+++ b/Models.xlsx
@@ -26,10 +26,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="103" uniqueCount="103">
   <si>
+    <t>No.</t>
+  </si>
+  <si>
     <t>Fender® Tweed Deluxe</t>
   </si>
   <si>
-    <t>No.</t>
+    <t>Ampeg® SVT 300w</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>85 M-2 LEAD</t>
@@ -38,49 +44,46 @@
     <t>Fender® ’59 Bassman</t>
   </si>
   <si>
-    <t>Ampeg® SVT 300w</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>based on</t>
+  </si>
+  <si>
+    <t>65 BLACK PRINCE</t>
+  </si>
+  <si>
+    <t>Fender® Deluxe Reverb (Normal)</t>
   </si>
   <si>
     <t>59 DELUXE GAIN MOD</t>
   </si>
   <si>
-    <t>65 BLACK PRINCE</t>
-  </si>
-  <si>
-    <t>Fender® Deluxe Reverb (Normal)</t>
-  </si>
-  <si>
-    <t>based on</t>
-  </si>
-  <si>
     <t>59 TWEED PRINCE</t>
   </si>
   <si>
     <t>59 TWEED BASS</t>
   </si>
   <si>
+    <t>59 TWEED DELUXE</t>
+  </si>
+  <si>
+    <t>64 BLACK LUX VIB</t>
+  </si>
+  <si>
     <t>Fender® Deluxe Reverb (Vibrato)</t>
   </si>
   <si>
-    <t>64 BLACK LUX VIB</t>
-  </si>
-  <si>
-    <t>59 TWEED DELUXE</t>
-  </si>
-  <si>
     <t>Fender® Tweed Deluxe (Gain Mod)</t>
   </si>
   <si>
     <t>Fender® ’59 Princeton</t>
   </si>
   <si>
+    <t>64 BLACK LUX NORM</t>
+  </si>
+  <si>
     <t>69 PLEXIGLAS 100W</t>
   </si>
   <si>
-    <t>64 BLACK LUX NORM</t>
+    <t>64 BLACK VIB</t>
   </si>
   <si>
     <t>Soldano® SLO-100 (Clean)</t>
@@ -89,69 +92,66 @@
     <t>Fender® Vibroverb</t>
   </si>
   <si>
-    <t>64 BLACK VIB</t>
+    <t>65 BLACK MINI</t>
+  </si>
+  <si>
+    <t>Fender® Princeton Reverb</t>
   </si>
   <si>
     <t>68 PLEXI EL84 MOD</t>
   </si>
   <si>
-    <t>Fender® Princeton Reverb</t>
-  </si>
-  <si>
-    <t>65 BLACK MINI</t>
-  </si>
-  <si>
     <t>Fender® Champ 6w</t>
   </si>
   <si>
+    <t>Fender® Princeton</t>
+  </si>
+  <si>
+    <t>Fender® Dual Showman</t>
+  </si>
+  <si>
+    <t>66 AC Hi BOOST</t>
+  </si>
+  <si>
     <t>68 PLEXIGLAS 50W</t>
   </si>
   <si>
-    <t>66 AC Hi BOOST</t>
-  </si>
-  <si>
-    <t>Fender® Dual Showman</t>
-  </si>
-  <si>
-    <t>Fender® Princeton</t>
-  </si>
-  <si>
     <t>65 BLACK PRINCE REV</t>
   </si>
   <si>
+    <t>65 BLACK SR</t>
+  </si>
+  <si>
+    <t>Marshall® JCM800 (Bass Mod)</t>
+  </si>
+  <si>
     <t>Marshall® JCM800 (TS Mod)</t>
   </si>
   <si>
-    <t>Marshall® JCM800 (Bass Mod)</t>
-  </si>
-  <si>
-    <t>65 BLACK SR</t>
+    <t>Fender® Super Reverb "Blackface"</t>
+  </si>
+  <si>
+    <t>Ampeg® Portaflex B15-N</t>
   </si>
   <si>
     <t>Marshall® JCM800 (Normal)</t>
   </si>
   <si>
-    <t>Ampeg® Portaflex B15-N</t>
-  </si>
-  <si>
-    <t>Fender® Super Reverb "Blackface"</t>
+    <t>67 BLACK DUO</t>
   </si>
   <si>
     <t>Fender® Twin Reverb "Blackface"</t>
   </si>
   <si>
-    <t>67 BLACK DUO</t>
+    <t>67 BLACK SHIMMER</t>
+  </si>
+  <si>
+    <t>67 PLEXIGLAS VARI</t>
   </si>
   <si>
     <t>Marshall® Super Lead Plexi 50W</t>
   </si>
   <si>
-    <t>67 PLEXIGLAS VARI</t>
-  </si>
-  <si>
-    <t>67 BLACK SHIMMER</t>
-  </si>
-  <si>
     <t>97 RB-01B GREEN</t>
   </si>
   <si>
@@ -170,15 +170,15 @@
     <t>69 BLUE LINE SCOOP</t>
   </si>
   <si>
+    <t>Ampeg® SVT 300w (Scooped)</t>
+  </si>
+  <si>
     <t>65 J45</t>
   </si>
   <si>
     <t>82 LEAD 800 TS MOD</t>
   </si>
   <si>
-    <t>Ampeg® SVT 300w (Scooped)</t>
-  </si>
-  <si>
     <t>Marshall® JTM45</t>
   </si>
   <si>
@@ -191,12 +191,12 @@
     <t>Marshall® Super Lead Plexi 100W</t>
   </si>
   <si>
+    <t>82 LEAD 800 100W</t>
+  </si>
+  <si>
     <t>Roland® Jazz Chorus 120 (Head)</t>
   </si>
   <si>
-    <t>82 LEAD 800 100W</t>
-  </si>
-  <si>
     <t>82 LEAD 800 50W</t>
   </si>
   <si>
@@ -269,10 +269,10 @@
     <t>99 PV51 II LEAD</t>
   </si>
   <si>
+    <t>Peavey® 5150 II (Lead)</t>
+  </si>
+  <si>
     <t>11 EPB II CRUNCH</t>
-  </si>
-  <si>
-    <t>Peavey® 5150 II (Lead)</t>
   </si>
   <si>
     <t>Bogner® Ecstasy 101B (Green Channel)</t>
@@ -704,7 +704,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -718,641 +718,644 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="19.5">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="19.5">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="19.5">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="19.5">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="19.5">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="19.5">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="19.5">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="19.5">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="19.5">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="19.5">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="19.5">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="19.5">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="19.5">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="19.5">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="19.5">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="19.5">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="19.5">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="19.5">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="19.5">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="19.5">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="19.5">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="19.5">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="19.5">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="19.5">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="19.5">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="19.5">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="19.5">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="19.5">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="19.5">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="19.5">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="19.5">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="19.5">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="19.5">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="19.5">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" ht="19.5">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="19.5">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="19.5">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="19.5">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="19.5">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="19.5">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="19.5">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="19.5">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="19.5">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" ht="19.5">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" ht="19.5">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="19.5">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="19.5">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="19.5">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="19.5">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="19.5">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="19.5">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" ht="19.5">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C53">
+    <sortCondition ref="B2:B53"/>
+  </sortState>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
@@ -1372,7 +1375,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1"/>
 </worksheet>
 </file>
 
@@ -1386,6 +1389,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="11940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="11940" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AMPLIFIER" sheetId="1" r:id="rId1"/>
+    <sheet name="Distortion" sheetId="2" r:id="rId2"/>
+    <sheet name="Dynamics" sheetId="3" r:id="rId3"/>
+    <sheet name="Modulation" sheetId="4" r:id="rId4"/>
+    <sheet name="REVERB" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">AMPLIFIER!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="1"/>
   <extLst>
@@ -24,11 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="225" uniqueCount="225">
   <si>
     <t>No.</t>
   </si>
   <si>
+    <t>Digitech® Crescendo (Based on)</t>
+  </si>
+  <si>
     <t>Fender® Tweed Deluxe</t>
   </si>
   <si>
@@ -50,15 +55,27 @@
     <t>65 BLACK PRINCE</t>
   </si>
   <si>
+    <t>DYN DELAY</t>
+  </si>
+  <si>
+    <t>Digitech® Drop</t>
+  </si>
+  <si>
     <t>Fender® Deluxe Reverb (Normal)</t>
   </si>
   <si>
     <t>59 DELUXE GAIN MOD</t>
   </si>
   <si>
+    <t>Visuals</t>
+  </si>
+  <si>
     <t>59 TWEED PRINCE</t>
   </si>
   <si>
+    <t>Avid® Custom Distortion (Eleven Rack)</t>
+  </si>
+  <si>
     <t>59 TWEED BASS</t>
   </si>
   <si>
@@ -71,18 +88,33 @@
     <t>Fender® Deluxe Reverb (Vibrato)</t>
   </si>
   <si>
+    <t>Rocktron® Hush The Pedal (Based on)</t>
+  </si>
+  <si>
     <t>Fender® Tweed Deluxe (Gain Mod)</t>
   </si>
   <si>
     <t>Fender® ’59 Princeton</t>
   </si>
   <si>
+    <t>Avid® Custom Graphic EQ (Eleven Rack)</t>
+  </si>
+  <si>
+    <t>Avid® Dynamic III Comp (Plug-in)</t>
+  </si>
+  <si>
     <t>64 BLACK LUX NORM</t>
   </si>
   <si>
     <t>69 PLEXIGLAS 100W</t>
   </si>
   <si>
+    <t>Moog® Ring Modulator</t>
+  </si>
+  <si>
+    <t>OCT FUZZ</t>
+  </si>
+  <si>
     <t>64 BLACK VIB</t>
   </si>
   <si>
@@ -122,30 +154,48 @@
     <t>65 BLACK SR</t>
   </si>
   <si>
+    <t>Boss® OC-2</t>
+  </si>
+  <si>
     <t>Marshall® JCM800 (Bass Mod)</t>
   </si>
   <si>
     <t>Marshall® JCM800 (TS Mod)</t>
   </si>
   <si>
+    <t>MULTICHORUS</t>
+  </si>
+  <si>
     <t>Fender® Super Reverb "Blackface"</t>
   </si>
   <si>
+    <t>Boss® TR-2</t>
+  </si>
+  <si>
     <t>Ampeg® Portaflex B15-N</t>
   </si>
   <si>
     <t>Marshall® JCM800 (Normal)</t>
   </si>
   <si>
+    <t>S1 DRIVE</t>
+  </si>
+  <si>
     <t>67 BLACK DUO</t>
   </si>
   <si>
+    <t>DYN111 COMP</t>
+  </si>
+  <si>
     <t>Fender® Twin Reverb "Blackface"</t>
   </si>
   <si>
     <t>67 BLACK SHIMMER</t>
   </si>
   <si>
+    <t>Acoustic Sim</t>
+  </si>
+  <si>
     <t>67 PLEXIGLAS VARI</t>
   </si>
   <si>
@@ -221,6 +271,9 @@
     <t>84 J-120H</t>
   </si>
   <si>
+    <t>AMBI VERB</t>
+  </si>
+  <si>
     <t>Mesa/Boogie® Mark IIc+ (Drive)</t>
   </si>
   <si>
@@ -230,6 +283,9 @@
     <t>Mesa/Boogie® Mark IIc+ (Coupling Cap Mod)</t>
   </si>
   <si>
+    <t>SPRING REVERB</t>
+  </si>
+  <si>
     <t>92 TREADPLATE MODERN</t>
   </si>
   <si>
@@ -245,12 +301,21 @@
     <t>92 TREADPLATE VINTAGE</t>
   </si>
   <si>
+    <t>MXR® Distortion</t>
+  </si>
+  <si>
     <t>Mesa/Boogie® Dual Rectifier (Vintage)</t>
   </si>
   <si>
+    <t>Mu-Tron® III Envelope Filter</t>
+  </si>
+  <si>
     <t>93 MS30</t>
   </si>
   <si>
+    <t>ProCo® Rat</t>
+  </si>
+  <si>
     <t>Matchless® DC30</t>
   </si>
   <si>
@@ -308,6 +373,12 @@
     <t>89 SL-100 EXT RANGE</t>
   </si>
   <si>
+    <t>BBD DELAY</t>
+  </si>
+  <si>
+    <t>TC Electronic® Thunderstorm</t>
+  </si>
+  <si>
     <t>Soldano® SLO-100 (Extreme)</t>
   </si>
   <si>
@@ -320,12 +391,18 @@
     <t>Tangerine 30 Channel 2</t>
   </si>
   <si>
+    <t>Darkglass® Microtubes B7K Ultra V2 Bass Preamp</t>
+  </si>
+  <si>
     <t>Orange® AD30HTC ® Dirty Channel</t>
   </si>
   <si>
     <t>11 EPB II HI-LEAD</t>
   </si>
   <si>
+    <t>Fulltone® OCD</t>
+  </si>
+  <si>
     <t>2011 ENGL® Powerball II</t>
   </si>
   <si>
@@ -333,13 +410,304 @@
   </si>
   <si>
     <t>11 EPB II CLEAN</t>
+  </si>
+  <si>
+    <t>WHITE BOOST</t>
+  </si>
+  <si>
+    <t>Xotic® RC Booster</t>
+  </si>
+  <si>
+    <t>EHX® Big Muff Pi</t>
+  </si>
+  <si>
+    <t>GREEN JRC-OD</t>
+  </si>
+  <si>
+    <t>Ibanez® TS808</t>
+  </si>
+  <si>
+    <t>DC DISTORT</t>
+  </si>
+  <si>
+    <t>RING MOD</t>
+  </si>
+  <si>
+    <t>BLACK OP</t>
+  </si>
+  <si>
+    <t>ENV FILTER</t>
+  </si>
+  <si>
+    <t>TRI FUZZ</t>
+  </si>
+  <si>
+    <t>8-BIT CRUSH</t>
+  </si>
+  <si>
+    <t>OTO® Biscuit</t>
+  </si>
+  <si>
+    <t>ANXIETY OD</t>
+  </si>
+  <si>
+    <t>ANXIETY OD V2</t>
+  </si>
+  <si>
+    <t>Detune</t>
+  </si>
+  <si>
+    <t>D1 Distortion</t>
+  </si>
+  <si>
+    <t>Boss® DS-1</t>
+  </si>
+  <si>
+    <t>K DRIVE</t>
+  </si>
+  <si>
+    <t>Klon® Centaur</t>
+  </si>
+  <si>
+    <t>MX Dist</t>
+  </si>
+  <si>
+    <t>Round Fuzz</t>
+  </si>
+  <si>
+    <t>CHORUS</t>
+  </si>
+  <si>
+    <t>Dunlop® Fuzz Face</t>
+  </si>
+  <si>
+    <t>B DIST 7000</t>
+  </si>
+  <si>
+    <t>Dunlop® JH-OC1 Octavio</t>
+  </si>
+  <si>
+    <t>D250 DRIVE</t>
+  </si>
+  <si>
+    <t>DOD® Overdrive Preamp 250</t>
+  </si>
+  <si>
+    <t>AIR VIBRATO</t>
+  </si>
+  <si>
+    <t>Boss® SD-1 Super Overdrive</t>
+  </si>
+  <si>
+    <t>GRAY COMP</t>
+  </si>
+  <si>
+    <t>Ross® Compressor</t>
+  </si>
+  <si>
+    <t>GRAPHIC EQ</t>
+  </si>
+  <si>
+    <t>PARA EQ</t>
+  </si>
+  <si>
+    <t>Avid® Custom Parametric EQ (Eleven Rack)</t>
+  </si>
+  <si>
+    <t>BASS EQ</t>
+  </si>
+  <si>
+    <t>Avid® Custom EQ (Eleven Rack)</t>
+  </si>
+  <si>
+    <t>Boss® DD-5</t>
+  </si>
+  <si>
+    <t>GATE</t>
+  </si>
+  <si>
+    <t>AUTOSWELL</t>
+  </si>
+  <si>
+    <t>NOISE FILTER</t>
+  </si>
+  <si>
+    <t>Noise Filter (Headrush® Original)</t>
+  </si>
+  <si>
+    <t>SIDE COMP</t>
+  </si>
+  <si>
+    <t>Side Comp (HeadRush® Original)</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>Based on Electro-Harmonix® Freeze</t>
+  </si>
+  <si>
+    <t>Avid® AIR Multichorus (Plug-in)</t>
+  </si>
+  <si>
+    <t>AIR REVERB</t>
+  </si>
+  <si>
+    <t>Boss® CE-1 (Chorus Mode)</t>
+  </si>
+  <si>
+    <t>FLANGER</t>
+  </si>
+  <si>
+    <t>VIBRATO</t>
+  </si>
+  <si>
+    <t>Boss® CE-1 (Vibrato Mode)</t>
+  </si>
+  <si>
+    <t>AIR FILTER</t>
+  </si>
+  <si>
+    <t>Pro Tools® AIR Filter (Plug- in)</t>
+  </si>
+  <si>
+    <t>AIR FLANGER</t>
+  </si>
+  <si>
+    <t>Pro Tools® AIR Flanger (Plug-in)</t>
+  </si>
+  <si>
+    <t>Pro Tools® AIR Vibrato (Plug-in)</t>
+  </si>
+  <si>
+    <t>VIBE PHASER</t>
+  </si>
+  <si>
+    <t>Uni-Vibe®</t>
+  </si>
+  <si>
+    <t>ORANGE PHASER</t>
+  </si>
+  <si>
+    <t>MXR® Phase 90</t>
+  </si>
+  <si>
+    <t>TRON PHASER</t>
+  </si>
+  <si>
+    <t>Mu-Tron® Phasor II</t>
+  </si>
+  <si>
+    <t>Detune (HeadRush® Original)</t>
+  </si>
+  <si>
+    <t>STONE PHASER</t>
+  </si>
+  <si>
+    <t>EHX ®Small Stone</t>
+  </si>
+  <si>
+    <t>ROTARY</t>
+  </si>
+  <si>
+    <t>Avid® Rotary Module (Plug- in)</t>
+  </si>
+  <si>
+    <t>TREMOLO</t>
+  </si>
+  <si>
+    <t>Avid® Reverb One (Eleven Rack)</t>
+  </si>
+  <si>
+    <t>OCTAVES</t>
+  </si>
+  <si>
+    <t>SMART HARM</t>
+  </si>
+  <si>
+    <t>Smart Harmonizer (Headrush Original)</t>
+  </si>
+  <si>
+    <t>DROP TUNE</t>
+  </si>
+  <si>
+    <t>TRON FILTER</t>
+  </si>
+  <si>
+    <t>Boss® Acoustic Simulator</t>
+  </si>
+  <si>
+    <t>Octaves Up</t>
+  </si>
+  <si>
+    <t>OCTAVES UP (HeadRush® Original)</t>
+  </si>
+  <si>
+    <t>DOD® FX25 Envelope Filter</t>
+  </si>
+  <si>
+    <t>REVERSE DELAY</t>
+  </si>
+  <si>
+    <t>STEREO DOUBLER</t>
+  </si>
+  <si>
+    <t>Stereo Doubler (HeadRush® Original)</t>
+  </si>
+  <si>
+    <t>Pro Tools® AIR Reverb (Plug-in)</t>
+  </si>
+  <si>
+    <t>ELEVEN REVERB</t>
+  </si>
+  <si>
+    <t>Fender® Spring Reverb</t>
+  </si>
+  <si>
+    <t>TAPE ECHO</t>
+  </si>
+  <si>
+    <t>Maestro® Echoplex EP-3</t>
+  </si>
+  <si>
+    <t>EHX® Deluxe Memory Man</t>
+  </si>
+  <si>
+    <t>Pro Tools® AIR Dynamic Delay (Plug-in)</t>
+  </si>
+  <si>
+    <t>SHIMMER</t>
+  </si>
+  <si>
+    <t>Shimmer Reverb (Headrush® Original)</t>
+  </si>
+  <si>
+    <t>AIR DELAY</t>
+  </si>
+  <si>
+    <t>Pro Tools® AIR Delay (Plug-in)</t>
+  </si>
+  <si>
+    <t>PITCH DELAY</t>
+  </si>
+  <si>
+    <t>Boss® PS-3</t>
+  </si>
+  <si>
+    <t>AMBI VERB (Headrush® Original)</t>
+  </si>
+  <si>
+    <t>RESO DELAY</t>
+  </si>
+  <si>
+    <t>RESO DELAY (HeadRush® Original)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,8 +736,29 @@
       <family val="3"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color auto="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,8 +777,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -412,13 +807,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +843,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -721,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -733,10 +1155,10 @@
         <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -745,10 +1167,10 @@
         <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -757,10 +1179,10 @@
         <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -769,10 +1191,10 @@
         <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -781,10 +1203,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -793,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -805,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -817,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -829,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -841,10 +1263,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -853,10 +1275,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -865,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -877,10 +1299,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -889,10 +1311,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -901,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -913,10 +1335,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -925,10 +1347,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -937,10 +1359,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -949,10 +1371,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -961,10 +1383,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -973,10 +1395,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -985,10 +1407,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -997,10 +1419,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -1009,10 +1431,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -1021,10 +1443,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4"/>
     </row>
@@ -1033,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4"/>
     </row>
@@ -1045,10 +1467,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -1057,10 +1479,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -1069,10 +1491,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -1081,10 +1503,10 @@
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D31" s="4"/>
     </row>
@@ -1093,10 +1515,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D32" s="4"/>
     </row>
@@ -1105,10 +1527,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -1117,10 +1539,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D34" s="4"/>
     </row>
@@ -1129,10 +1551,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D35" s="4"/>
     </row>
@@ -1141,10 +1563,10 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D36" s="4"/>
     </row>
@@ -1153,10 +1575,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D37" s="4"/>
     </row>
@@ -1165,10 +1587,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D38" s="4"/>
     </row>
@@ -1177,10 +1599,10 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D39" s="4"/>
     </row>
@@ -1189,10 +1611,10 @@
         <v>45</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -1201,10 +1623,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -1213,10 +1635,10 @@
         <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D42" s="4"/>
     </row>
@@ -1225,10 +1647,10 @@
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D43" s="4"/>
     </row>
@@ -1237,10 +1659,10 @@
         <v>35</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D44" s="4"/>
     </row>
@@ -1249,10 +1671,10 @@
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D45" s="4"/>
     </row>
@@ -1261,10 +1683,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D46" s="4"/>
     </row>
@@ -1273,10 +1695,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D47" s="4"/>
     </row>
@@ -1285,10 +1707,10 @@
         <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D48" s="4"/>
     </row>
@@ -1297,10 +1719,10 @@
         <v>37</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D49" s="4"/>
     </row>
@@ -1309,10 +1731,10 @@
         <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D50" s="4"/>
     </row>
@@ -1321,10 +1743,10 @@
         <v>39</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D51" s="4"/>
     </row>
@@ -1333,10 +1755,10 @@
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D52" s="4"/>
     </row>
@@ -1345,10 +1767,10 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -1367,28 +1789,887 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D17">
+    <sortCondition ref="B2:B17"/>
+  </sortState>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D11">
+    <sortCondition ref="B2:B11"/>
+  </sortState>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6">
+        <v>8</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D23">
+    <sortCondition ref="B2:B23"/>
+  </sortState>
+  <phoneticPr fontId="6" type="Hiragana"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D14">
+    <sortCondition ref="B2:B14"/>
+  </sortState>
+  <phoneticPr fontId="6" type="Hiragana"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -26,15 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="237" uniqueCount="237">
+  <si>
+    <t>Fender® Tweed Deluxe</t>
+  </si>
+  <si>
+    <t>Digitech® Crescendo (Based on)</t>
+  </si>
   <si>
     <t>No.</t>
   </si>
   <si>
-    <t>Digitech® Crescendo (Based on)</t>
-  </si>
-  <si>
-    <t>Fender® Tweed Deluxe</t>
+    <t>85 M-2 LEAD</t>
+  </si>
+  <si>
+    <t>Fender® ’59 Bassman</t>
   </si>
   <si>
     <t>Ampeg® SVT 300w</t>
@@ -43,10 +49,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>85 M-2 LEAD</t>
-  </si>
-  <si>
-    <t>Fender® ’59 Bassman</t>
+    <t>DYN DELAY</t>
+  </si>
+  <si>
+    <t>Digitech® Drop</t>
+  </si>
+  <si>
+    <t>Fender® Deluxe Reverb (Normal)</t>
   </si>
   <si>
     <t>based on</t>
@@ -55,15 +64,6 @@
     <t>65 BLACK PRINCE</t>
   </si>
   <si>
-    <t>DYN DELAY</t>
-  </si>
-  <si>
-    <t>Digitech® Drop</t>
-  </si>
-  <si>
-    <t>Fender® Deluxe Reverb (Normal)</t>
-  </si>
-  <si>
     <t>59 DELUXE GAIN MOD</t>
   </si>
   <si>
@@ -79,15 +79,21 @@
     <t>59 TWEED BASS</t>
   </si>
   <si>
+    <t>Fender® Deluxe Reverb (Vibrato)</t>
+  </si>
+  <si>
+    <t>64 BLACK LUX VIB</t>
+  </si>
+  <si>
+    <t>3 of 4 Moduration</t>
+  </si>
+  <si>
+    <t>Birch410</t>
+  </si>
+  <si>
     <t>59 TWEED DELUXE</t>
   </si>
   <si>
-    <t>64 BLACK LUX VIB</t>
-  </si>
-  <si>
-    <t>Fender® Deluxe Reverb (Vibrato)</t>
-  </si>
-  <si>
     <t>Rocktron® Hush The Pedal (Based on)</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>Fender® ’59 Princeton</t>
   </si>
   <si>
+    <t>69 PLEXIGLAS 100W</t>
+  </si>
+  <si>
     <t>Avid® Custom Graphic EQ (Eleven Rack)</t>
   </si>
   <si>
@@ -106,7 +115,10 @@
     <t>64 BLACK LUX NORM</t>
   </si>
   <si>
-    <t>69 PLEXIGLAS 100W</t>
+    <t>Soldano® SLO-100 (Clean)</t>
+  </si>
+  <si>
+    <t>Fender® Vibroverb</t>
   </si>
   <si>
     <t>Moog® Ring Modulator</t>
@@ -118,49 +130,55 @@
     <t>64 BLACK VIB</t>
   </si>
   <si>
-    <t>Soldano® SLO-100 (Clean)</t>
-  </si>
-  <si>
-    <t>Fender® Vibroverb</t>
+    <t>68 PLEXI EL84 MOD</t>
+  </si>
+  <si>
+    <t>Fender® Princeton Reverb</t>
   </si>
   <si>
     <t>65 BLACK MINI</t>
   </si>
   <si>
-    <t>Fender® Princeton Reverb</t>
-  </si>
-  <si>
-    <t>68 PLEXI EL84 MOD</t>
-  </si>
-  <si>
     <t>Fender® Champ 6w</t>
   </si>
   <si>
+    <t>68 PLEXIGLAS 50W</t>
+  </si>
+  <si>
+    <t>66 AC Hi BOOST</t>
+  </si>
+  <si>
+    <t>Fender® Dual Showman</t>
+  </si>
+  <si>
     <t>Fender® Princeton</t>
   </si>
   <si>
-    <t>Fender® Dual Showman</t>
-  </si>
-  <si>
-    <t>66 AC Hi BOOST</t>
-  </si>
-  <si>
-    <t>68 PLEXIGLAS 50W</t>
+    <t>TWIN2120B</t>
   </si>
   <si>
     <t>65 BLACK PRINCE REV</t>
   </si>
   <si>
+    <t>Marshall® JCM800 (TS Mod)</t>
+  </si>
+  <si>
+    <t>Boss® OC-2</t>
+  </si>
+  <si>
+    <t>Marshall® JCM800 (Bass Mod)</t>
+  </si>
+  <si>
     <t>65 BLACK SR</t>
   </si>
   <si>
-    <t>Boss® OC-2</t>
-  </si>
-  <si>
-    <t>Marshall® JCM800 (Bass Mod)</t>
-  </si>
-  <si>
-    <t>Marshall® JCM800 (TS Mod)</t>
+    <t>Marshall® JCM800 (Normal)</t>
+  </si>
+  <si>
+    <t>Boss® TR-2</t>
+  </si>
+  <si>
+    <t>Ampeg® Portaflex B15-N</t>
   </si>
   <si>
     <t>MULTICHORUS</t>
@@ -169,13 +187,13 @@
     <t>Fender® Super Reverb "Blackface"</t>
   </si>
   <si>
-    <t>Boss® TR-2</t>
-  </si>
-  <si>
-    <t>Ampeg® Portaflex B15-N</t>
-  </si>
-  <si>
-    <t>Marshall® JCM800 (Normal)</t>
+    <t>DYN111 COMP</t>
+  </si>
+  <si>
+    <t>Fender® Twin Reverb "Blackface"</t>
+  </si>
+  <si>
+    <t>Tangerine412</t>
   </si>
   <si>
     <t>S1 DRIVE</t>
@@ -184,24 +202,18 @@
     <t>67 BLACK DUO</t>
   </si>
   <si>
-    <t>DYN111 COMP</t>
-  </si>
-  <si>
-    <t>Fender® Twin Reverb "Blackface"</t>
+    <t>Marshall® Super Lead Plexi 50W</t>
+  </si>
+  <si>
+    <t>Acoustic Sim</t>
+  </si>
+  <si>
+    <t>67 PLEXIGLAS VARI</t>
   </si>
   <si>
     <t>67 BLACK SHIMMER</t>
   </si>
   <si>
-    <t>Acoustic Sim</t>
-  </si>
-  <si>
-    <t>67 PLEXIGLAS VARI</t>
-  </si>
-  <si>
-    <t>Marshall® Super Lead Plexi 50W</t>
-  </si>
-  <si>
     <t>97 RB-01B GREEN</t>
   </si>
   <si>
@@ -223,12 +235,12 @@
     <t>Ampeg® SVT 300w (Scooped)</t>
   </si>
   <si>
+    <t>82 LEAD 800 TS MOD</t>
+  </si>
+  <si>
     <t>65 J45</t>
   </si>
   <si>
-    <t>82 LEAD 800 TS MOD</t>
-  </si>
-  <si>
     <t>Marshall® JTM45</t>
   </si>
   <si>
@@ -253,15 +265,18 @@
     <t>Marshall® JCM800 50w</t>
   </si>
   <si>
+    <t>BLACKLINE810</t>
+  </si>
+  <si>
     <t>82 LEAD 800 BASS MOD</t>
   </si>
   <si>
+    <t>Marshall® JCM800 (Bright)</t>
+  </si>
+  <si>
     <t>82 LEAD 800 BRIGHT</t>
   </si>
   <si>
-    <t>Marshall® JCM800 (Bright)</t>
-  </si>
-  <si>
     <t>83 400R</t>
   </si>
   <si>
@@ -271,24 +286,24 @@
     <t>84 J-120H</t>
   </si>
   <si>
+    <t>Mesa/Boogie® Mark IIc+ (Drive)</t>
+  </si>
+  <si>
     <t>AMBI VERB</t>
   </si>
   <si>
-    <t>Mesa/Boogie® Mark IIc+ (Drive)</t>
-  </si>
-  <si>
     <t>85 M-2 LEAD CAP MOD</t>
   </si>
   <si>
     <t>Mesa/Boogie® Mark IIc+ (Coupling Cap Mod)</t>
   </si>
   <si>
+    <t>92 TREADPLATE MODERN</t>
+  </si>
+  <si>
     <t>SPRING REVERB</t>
   </si>
   <si>
-    <t>92 TREADPLATE MODERN</t>
-  </si>
-  <si>
     <t>Mesa/Boogie® Dual Rectifier (Modern)</t>
   </si>
   <si>
@@ -301,24 +316,24 @@
     <t>92 TREADPLATE VINTAGE</t>
   </si>
   <si>
+    <t>Mesa/Boogie® Dual Rectifier (Vintage)</t>
+  </si>
+  <si>
     <t>MXR® Distortion</t>
   </si>
   <si>
-    <t>Mesa/Boogie® Dual Rectifier (Vintage)</t>
+    <t>93 MS30</t>
   </si>
   <si>
     <t>Mu-Tron® III Envelope Filter</t>
   </si>
   <si>
-    <t>93 MS30</t>
+    <t>Matchless® DC30</t>
   </si>
   <si>
     <t>ProCo® Rat</t>
   </si>
   <si>
-    <t>Matchless® DC30</t>
-  </si>
-  <si>
     <t>99 PV51 II CLEAN</t>
   </si>
   <si>
@@ -334,12 +349,12 @@
     <t>99 PV51 II LEAD</t>
   </si>
   <si>
+    <t>11 EPB II CRUNCH</t>
+  </si>
+  <si>
     <t>Peavey® 5150 II (Lead)</t>
   </si>
   <si>
-    <t>11 EPB II CRUNCH</t>
-  </si>
-  <si>
     <t>Bogner® Ecstasy 101B (Green Channel)</t>
   </si>
   <si>
@@ -373,15 +388,15 @@
     <t>89 SL-100 EXT RANGE</t>
   </si>
   <si>
+    <t>Soldano® SLO-100 (Extreme)</t>
+  </si>
+  <si>
+    <t>TC Electronic® Thunderstorm</t>
+  </si>
+  <si>
     <t>BBD DELAY</t>
   </si>
   <si>
-    <t>TC Electronic® Thunderstorm</t>
-  </si>
-  <si>
-    <t>Soldano® SLO-100 (Extreme)</t>
-  </si>
-  <si>
     <t>Tangerine 30 Channel 1</t>
   </si>
   <si>
@@ -391,21 +406,21 @@
     <t>Tangerine 30 Channel 2</t>
   </si>
   <si>
+    <t>Orange® AD30HTC ® Dirty Channel</t>
+  </si>
+  <si>
     <t>Darkglass® Microtubes B7K Ultra V2 Bass Preamp</t>
   </si>
   <si>
-    <t>Orange® AD30HTC ® Dirty Channel</t>
-  </si>
-  <si>
     <t>11 EPB II HI-LEAD</t>
   </si>
   <si>
+    <t>2011 ENGL® Powerball II</t>
+  </si>
+  <si>
     <t>Fulltone® OCD</t>
   </si>
   <si>
-    <t>2011 ENGL® Powerball II</t>
-  </si>
-  <si>
     <t>11 EPB II LO-LEAD</t>
   </si>
   <si>
@@ -418,30 +433,30 @@
     <t>Xotic® RC Booster</t>
   </si>
   <si>
+    <t>GREEN JRC-OD</t>
+  </si>
+  <si>
     <t>EHX® Big Muff Pi</t>
   </si>
   <si>
-    <t>GREEN JRC-OD</t>
-  </si>
-  <si>
     <t>Ibanez® TS808</t>
   </si>
   <si>
     <t>DC DISTORT</t>
   </si>
   <si>
+    <t>BLACK OP</t>
+  </si>
+  <si>
     <t>RING MOD</t>
   </si>
   <si>
-    <t>BLACK OP</t>
+    <t>TRI FUZZ</t>
   </si>
   <si>
     <t>ENV FILTER</t>
   </si>
   <si>
-    <t>TRI FUZZ</t>
-  </si>
-  <si>
     <t>8-BIT CRUSH</t>
   </si>
   <si>
@@ -454,18 +469,21 @@
     <t>ANXIETY OD V2</t>
   </si>
   <si>
+    <t>D1 Distortion</t>
+  </si>
+  <si>
     <t>Detune</t>
   </si>
   <si>
-    <t>D1 Distortion</t>
-  </si>
-  <si>
     <t>Boss® DS-1</t>
   </si>
   <si>
     <t>K DRIVE</t>
   </si>
   <si>
+    <t>FAWN212</t>
+  </si>
+  <si>
     <t>Klon® Centaur</t>
   </si>
   <si>
@@ -475,12 +493,12 @@
     <t>Round Fuzz</t>
   </si>
   <si>
+    <t>Dunlop® Fuzz Face</t>
+  </si>
+  <si>
     <t>CHORUS</t>
   </si>
   <si>
-    <t>Dunlop® Fuzz Face</t>
-  </si>
-  <si>
     <t>B DIST 7000</t>
   </si>
   <si>
@@ -493,12 +511,12 @@
     <t>DOD® Overdrive Preamp 250</t>
   </si>
   <si>
+    <t>Boss® SD-1 Super Overdrive</t>
+  </si>
+  <si>
     <t>AIR VIBRATO</t>
   </si>
   <si>
-    <t>Boss® SD-1 Super Overdrive</t>
-  </si>
-  <si>
     <t>GRAY COMP</t>
   </si>
   <si>
@@ -520,12 +538,12 @@
     <t>Avid® Custom EQ (Eleven Rack)</t>
   </si>
   <si>
+    <t>GATE</t>
+  </si>
+  <si>
     <t>Boss® DD-5</t>
   </si>
   <si>
-    <t>GATE</t>
-  </si>
-  <si>
     <t>AUTOSWELL</t>
   </si>
   <si>
@@ -550,12 +568,12 @@
     <t>Avid® AIR Multichorus (Plug-in)</t>
   </si>
   <si>
+    <t>Boss® CE-1 (Chorus Mode)</t>
+  </si>
+  <si>
     <t>AIR REVERB</t>
   </si>
   <si>
-    <t>Boss® CE-1 (Chorus Mode)</t>
-  </si>
-  <si>
     <t>FLANGER</t>
   </si>
   <si>
@@ -598,12 +616,12 @@
     <t>Mu-Tron® Phasor II</t>
   </si>
   <si>
+    <t>STONE PHASER</t>
+  </si>
+  <si>
     <t>Detune (HeadRush® Original)</t>
   </si>
   <si>
-    <t>STONE PHASER</t>
-  </si>
-  <si>
     <t>EHX ®Small Stone</t>
   </si>
   <si>
@@ -616,27 +634,30 @@
     <t>TREMOLO</t>
   </si>
   <si>
+    <t>OCTAVES</t>
+  </si>
+  <si>
     <t>Avid® Reverb One (Eleven Rack)</t>
   </si>
   <si>
-    <t>OCTAVES</t>
-  </si>
-  <si>
     <t>SMART HARM</t>
   </si>
   <si>
     <t>Smart Harmonizer (Headrush Original)</t>
   </si>
   <si>
+    <t>TRON FILTER</t>
+  </si>
+  <si>
     <t>DROP TUNE</t>
   </si>
   <si>
-    <t>TRON FILTER</t>
-  </si>
-  <si>
     <t>Boss® Acoustic Simulator</t>
   </si>
   <si>
+    <t>1 of 4 Distortion</t>
+  </si>
+  <si>
     <t>Octaves Up</t>
   </si>
   <si>
@@ -646,12 +667,12 @@
     <t>DOD® FX25 Envelope Filter</t>
   </si>
   <si>
+    <t>STEREO DOUBLER</t>
+  </si>
+  <si>
     <t>REVERSE DELAY</t>
   </si>
   <si>
-    <t>STEREO DOUBLER</t>
-  </si>
-  <si>
     <t>Stereo Doubler (HeadRush® Original)</t>
   </si>
   <si>
@@ -701,13 +722,28 @@
   </si>
   <si>
     <t>RESO DELAY (HeadRush® Original)</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>60S412V</t>
+  </si>
+  <si>
+    <t>TREAD412</t>
+  </si>
+  <si>
+    <t>2 of 4 Dynamics / EQ</t>
+  </si>
+  <si>
+    <t>4 of 4 Reverb / Delay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,27 +772,6 @@
       <family val="3"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF24292F"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF24292F"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color auto="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -784,7 +799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -804,6 +819,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,16 +868,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1126,7 +1153,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1134,529 +1161,595 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="19.5">
       <c r="A2" s="3">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="19.5">
       <c r="A3" s="3">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="19.5">
       <c r="A4" s="3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="19.5">
       <c r="A5" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="19.5">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="19.5">
       <c r="A7" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="19.5">
       <c r="A8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="19.5">
       <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="19.5">
       <c r="A10" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="19.5">
       <c r="A11" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="19.5">
       <c r="A12" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="19.5">
       <c r="A13" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="19.5">
       <c r="A14" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="19.5">
       <c r="A15" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="19.5">
       <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="19.5">
       <c r="A17" s="3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="19.5">
       <c r="A18" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="19.5">
       <c r="A19" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="19.5">
       <c r="A20" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="19.5">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="19.5">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="19.5">
       <c r="A23" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="19.5">
       <c r="A24" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="19.5">
       <c r="A25" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="19.5">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="19.5">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="19.5">
       <c r="A28" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="19.5">
       <c r="A29" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="19.5">
       <c r="A30" s="3">
+        <v>22</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="19.5">
       <c r="A31" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="19.5">
       <c r="A32" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="19.5">
       <c r="A33" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="19.5">
       <c r="A34" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="19.5">
       <c r="A35" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="19.5">
       <c r="A36" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="19.5">
       <c r="A37" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="19.5">
       <c r="A38" s="3">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="19.5">
       <c r="A39" s="3">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="19.5">
       <c r="A40" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="19.5">
       <c r="A41" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="19.5">
       <c r="A42" s="3">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" ht="19.5">
       <c r="A43" s="3">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="19.5">
       <c r="A44" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>90</v>
@@ -1664,113 +1757,119 @@
       <c r="C44" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="19.5">
       <c r="A45" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="19.5">
       <c r="A46" s="3">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="19.5">
       <c r="A47" s="3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="19.5">
       <c r="A48" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="19.5">
       <c r="A49" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="19.5">
       <c r="A50" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="19.5">
       <c r="A51" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="19.5">
       <c r="A52" s="3">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" ht="19.5">
       <c r="A53" s="3">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -1789,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1804,214 +1903,225 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
+      <c r="B15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6">
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A2:D17">
-    <sortCondition ref="B2:B17"/>
+    <sortCondition ref="A2:A17"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
@@ -2020,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2035,143 +2145,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D11">
-    <sortCondition ref="B2:B11"/>
+  <sortState ref="A3:D12">
+    <sortCondition ref="A3:A12"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
@@ -2180,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2193,299 +2314,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6">
+      <c r="B15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
+      <c r="B21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6">
-        <v>17</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6">
-        <v>4</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D23">
-    <sortCondition ref="B2:B23"/>
+  <sortState ref="A3:D24">
+    <sortCondition ref="A3:A24"/>
   </sortState>
-  <phoneticPr fontId="6" type="Hiragana"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2495,181 +2627,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D14">
-    <sortCondition ref="B2:B14"/>
+  <sortState ref="A3:D15">
+    <sortCondition ref="A3:A15"/>
   </sortState>
-  <phoneticPr fontId="6" type="Hiragana"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="11940" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="11940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AMPLIFIER" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="237" uniqueCount="237">
   <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Digitech® Crescendo (Based on)</t>
+  </si>
+  <si>
     <t>Fender® Tweed Deluxe</t>
   </si>
   <si>
-    <t>Digitech® Crescendo (Based on)</t>
-  </si>
-  <si>
-    <t>No.</t>
+    <t>Ampeg® SVT 300w</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>85 M-2 LEAD</t>
@@ -43,27 +49,21 @@
     <t>Fender® ’59 Bassman</t>
   </si>
   <si>
-    <t>Ampeg® SVT 300w</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>65 BLACK PRINCE</t>
+  </si>
+  <si>
+    <t>based on</t>
+  </si>
+  <si>
+    <t>Digitech® Drop</t>
   </si>
   <si>
     <t>DYN DELAY</t>
   </si>
   <si>
-    <t>Digitech® Drop</t>
-  </si>
-  <si>
     <t>Fender® Deluxe Reverb (Normal)</t>
   </si>
   <si>
-    <t>based on</t>
-  </si>
-  <si>
-    <t>65 BLACK PRINCE</t>
-  </si>
-  <si>
     <t>59 DELUXE GAIN MOD</t>
   </si>
   <si>
@@ -79,21 +79,21 @@
     <t>59 TWEED BASS</t>
   </si>
   <si>
+    <t>3 of 4 Moduration</t>
+  </si>
+  <si>
+    <t>Birch410</t>
+  </si>
+  <si>
+    <t>59 TWEED DELUXE</t>
+  </si>
+  <si>
+    <t>64 BLACK LUX VIB</t>
+  </si>
+  <si>
     <t>Fender® Deluxe Reverb (Vibrato)</t>
   </si>
   <si>
-    <t>64 BLACK LUX VIB</t>
-  </si>
-  <si>
-    <t>3 of 4 Moduration</t>
-  </si>
-  <si>
-    <t>Birch410</t>
-  </si>
-  <si>
-    <t>59 TWEED DELUXE</t>
-  </si>
-  <si>
     <t>Rocktron® Hush The Pedal (Based on)</t>
   </si>
   <si>
@@ -103,16 +103,25 @@
     <t>Fender® ’59 Princeton</t>
   </si>
   <si>
+    <t>Avid® Custom Graphic EQ (Eleven Rack)</t>
+  </si>
+  <si>
+    <t>Avid® Dynamic III Comp (Plug-in)</t>
+  </si>
+  <si>
+    <t>64 BLACK LUX NORM</t>
+  </si>
+  <si>
     <t>69 PLEXIGLAS 100W</t>
   </si>
   <si>
-    <t>Avid® Custom Graphic EQ (Eleven Rack)</t>
-  </si>
-  <si>
-    <t>Avid® Dynamic III Comp (Plug-in)</t>
-  </si>
-  <si>
-    <t>64 BLACK LUX NORM</t>
+    <t>Moog® Ring Modulator</t>
+  </si>
+  <si>
+    <t>OCT FUZZ</t>
+  </si>
+  <si>
+    <t>64 BLACK VIB</t>
   </si>
   <si>
     <t>Soldano® SLO-100 (Clean)</t>
@@ -121,70 +130,70 @@
     <t>Fender® Vibroverb</t>
   </si>
   <si>
-    <t>Moog® Ring Modulator</t>
-  </si>
-  <si>
-    <t>OCT FUZZ</t>
-  </si>
-  <si>
-    <t>64 BLACK VIB</t>
+    <t>65 BLACK MINI</t>
+  </si>
+  <si>
+    <t>Fender® Princeton Reverb</t>
   </si>
   <si>
     <t>68 PLEXI EL84 MOD</t>
   </si>
   <si>
-    <t>Fender® Princeton Reverb</t>
-  </si>
-  <si>
-    <t>65 BLACK MINI</t>
-  </si>
-  <si>
     <t>Fender® Champ 6w</t>
   </si>
   <si>
+    <t>Fender® Princeton</t>
+  </si>
+  <si>
+    <t>Fender® Dual Showman</t>
+  </si>
+  <si>
+    <t>66 AC Hi BOOST</t>
+  </si>
+  <si>
     <t>68 PLEXIGLAS 50W</t>
   </si>
   <si>
-    <t>66 AC Hi BOOST</t>
-  </si>
-  <si>
-    <t>Fender® Dual Showman</t>
-  </si>
-  <si>
-    <t>Fender® Princeton</t>
-  </si>
-  <si>
     <t>TWIN2120B</t>
   </si>
   <si>
     <t>65 BLACK PRINCE REV</t>
   </si>
   <si>
+    <t>65 BLACK SR</t>
+  </si>
+  <si>
+    <t>Boss® OC-2</t>
+  </si>
+  <si>
+    <t>Marshall® JCM800 (Bass Mod)</t>
+  </si>
+  <si>
     <t>Marshall® JCM800 (TS Mod)</t>
   </si>
   <si>
-    <t>Boss® OC-2</t>
-  </si>
-  <si>
-    <t>Marshall® JCM800 (Bass Mod)</t>
-  </si>
-  <si>
-    <t>65 BLACK SR</t>
+    <t>MULTICHORUS</t>
+  </si>
+  <si>
+    <t>Fender® Super Reverb "Blackface"</t>
+  </si>
+  <si>
+    <t>Boss® TR-2</t>
+  </si>
+  <si>
+    <t>Ampeg® Portaflex B15-N</t>
   </si>
   <si>
     <t>Marshall® JCM800 (Normal)</t>
   </si>
   <si>
-    <t>Boss® TR-2</t>
-  </si>
-  <si>
-    <t>Ampeg® Portaflex B15-N</t>
-  </si>
-  <si>
-    <t>MULTICHORUS</t>
-  </si>
-  <si>
-    <t>Fender® Super Reverb "Blackface"</t>
+    <t>Tangerine412</t>
+  </si>
+  <si>
+    <t>S1 DRIVE</t>
+  </si>
+  <si>
+    <t>67 BLACK DUO</t>
   </si>
   <si>
     <t>DYN111 COMP</t>
@@ -193,27 +202,18 @@
     <t>Fender® Twin Reverb "Blackface"</t>
   </si>
   <si>
-    <t>Tangerine412</t>
-  </si>
-  <si>
-    <t>S1 DRIVE</t>
-  </si>
-  <si>
-    <t>67 BLACK DUO</t>
+    <t>67 BLACK SHIMMER</t>
+  </si>
+  <si>
+    <t>Acoustic Sim</t>
+  </si>
+  <si>
+    <t>67 PLEXIGLAS VARI</t>
   </si>
   <si>
     <t>Marshall® Super Lead Plexi 50W</t>
   </si>
   <si>
-    <t>Acoustic Sim</t>
-  </si>
-  <si>
-    <t>67 PLEXIGLAS VARI</t>
-  </si>
-  <si>
-    <t>67 BLACK SHIMMER</t>
-  </si>
-  <si>
     <t>97 RB-01B GREEN</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>Ampeg® SVT 300w (Scooped)</t>
   </si>
   <si>
+    <t>65 J45</t>
+  </si>
+  <si>
     <t>82 LEAD 800 TS MOD</t>
   </si>
   <si>
-    <t>65 J45</t>
-  </si>
-  <si>
     <t>Marshall® JTM45</t>
   </si>
   <si>
@@ -265,18 +265,18 @@
     <t>Marshall® JCM800 50w</t>
   </si>
   <si>
+    <t>82 LEAD 800 BASS MOD</t>
+  </si>
+  <si>
     <t>BLACKLINE810</t>
   </si>
   <si>
-    <t>82 LEAD 800 BASS MOD</t>
+    <t>82 LEAD 800 BRIGHT</t>
   </si>
   <si>
     <t>Marshall® JCM800 (Bright)</t>
   </si>
   <si>
-    <t>82 LEAD 800 BRIGHT</t>
-  </si>
-  <si>
     <t>83 400R</t>
   </si>
   <si>
@@ -286,24 +286,24 @@
     <t>84 J-120H</t>
   </si>
   <si>
+    <t>AMBI VERB</t>
+  </si>
+  <si>
     <t>Mesa/Boogie® Mark IIc+ (Drive)</t>
   </si>
   <si>
-    <t>AMBI VERB</t>
-  </si>
-  <si>
     <t>85 M-2 LEAD CAP MOD</t>
   </si>
   <si>
     <t>Mesa/Boogie® Mark IIc+ (Coupling Cap Mod)</t>
   </si>
   <si>
+    <t>SPRING REVERB</t>
+  </si>
+  <si>
     <t>92 TREADPLATE MODERN</t>
   </si>
   <si>
-    <t>SPRING REVERB</t>
-  </si>
-  <si>
     <t>Mesa/Boogie® Dual Rectifier (Modern)</t>
   </si>
   <si>
@@ -316,24 +316,24 @@
     <t>92 TREADPLATE VINTAGE</t>
   </si>
   <si>
+    <t>MXR® Distortion</t>
+  </si>
+  <si>
     <t>Mesa/Boogie® Dual Rectifier (Vintage)</t>
   </si>
   <si>
-    <t>MXR® Distortion</t>
+    <t>Mu-Tron® III Envelope Filter</t>
   </si>
   <si>
     <t>93 MS30</t>
   </si>
   <si>
-    <t>Mu-Tron® III Envelope Filter</t>
+    <t>ProCo® Rat</t>
   </si>
   <si>
     <t>Matchless® DC30</t>
   </si>
   <si>
-    <t>ProCo® Rat</t>
-  </si>
-  <si>
     <t>99 PV51 II CLEAN</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>99 PV51 II LEAD</t>
   </si>
   <si>
+    <t>Peavey® 5150 II (Lead)</t>
+  </si>
+  <si>
     <t>11 EPB II CRUNCH</t>
   </si>
   <si>
-    <t>Peavey® 5150 II (Lead)</t>
-  </si>
-  <si>
     <t>Bogner® Ecstasy 101B (Green Channel)</t>
   </si>
   <si>
@@ -388,15 +388,15 @@
     <t>89 SL-100 EXT RANGE</t>
   </si>
   <si>
+    <t>BBD DELAY</t>
+  </si>
+  <si>
+    <t>TC Electronic® Thunderstorm</t>
+  </si>
+  <si>
     <t>Soldano® SLO-100 (Extreme)</t>
   </si>
   <si>
-    <t>TC Electronic® Thunderstorm</t>
-  </si>
-  <si>
-    <t>BBD DELAY</t>
-  </si>
-  <si>
     <t>Tangerine 30 Channel 1</t>
   </si>
   <si>
@@ -406,21 +406,21 @@
     <t>Tangerine 30 Channel 2</t>
   </si>
   <si>
+    <t>Darkglass® Microtubes B7K Ultra V2 Bass Preamp</t>
+  </si>
+  <si>
     <t>Orange® AD30HTC ® Dirty Channel</t>
   </si>
   <si>
-    <t>Darkglass® Microtubes B7K Ultra V2 Bass Preamp</t>
-  </si>
-  <si>
     <t>11 EPB II HI-LEAD</t>
   </si>
   <si>
+    <t>Fulltone® OCD</t>
+  </si>
+  <si>
     <t>2011 ENGL® Powerball II</t>
   </si>
   <si>
-    <t>Fulltone® OCD</t>
-  </si>
-  <si>
     <t>11 EPB II LO-LEAD</t>
   </si>
   <si>
@@ -433,30 +433,30 @@
     <t>Xotic® RC Booster</t>
   </si>
   <si>
+    <t>EHX® Big Muff Pi</t>
+  </si>
+  <si>
     <t>GREEN JRC-OD</t>
   </si>
   <si>
-    <t>EHX® Big Muff Pi</t>
-  </si>
-  <si>
     <t>Ibanez® TS808</t>
   </si>
   <si>
     <t>DC DISTORT</t>
   </si>
   <si>
+    <t>RING MOD</t>
+  </si>
+  <si>
     <t>BLACK OP</t>
   </si>
   <si>
-    <t>RING MOD</t>
+    <t>ENV FILTER</t>
   </si>
   <si>
     <t>TRI FUZZ</t>
   </si>
   <si>
-    <t>ENV FILTER</t>
-  </si>
-  <si>
     <t>8-BIT CRUSH</t>
   </si>
   <si>
@@ -469,36 +469,36 @@
     <t>ANXIETY OD V2</t>
   </si>
   <si>
+    <t>Detune</t>
+  </si>
+  <si>
     <t>D1 Distortion</t>
   </si>
   <si>
-    <t>Detune</t>
-  </si>
-  <si>
     <t>Boss® DS-1</t>
   </si>
   <si>
     <t>K DRIVE</t>
   </si>
   <si>
+    <t>Klon® Centaur</t>
+  </si>
+  <si>
     <t>FAWN212</t>
   </si>
   <si>
-    <t>Klon® Centaur</t>
-  </si>
-  <si>
     <t>MX Dist</t>
   </si>
   <si>
     <t>Round Fuzz</t>
   </si>
   <si>
+    <t>CHORUS</t>
+  </si>
+  <si>
     <t>Dunlop® Fuzz Face</t>
   </si>
   <si>
-    <t>CHORUS</t>
-  </si>
-  <si>
     <t>B DIST 7000</t>
   </si>
   <si>
@@ -511,12 +511,12 @@
     <t>DOD® Overdrive Preamp 250</t>
   </si>
   <si>
+    <t>AIR VIBRATO</t>
+  </si>
+  <si>
     <t>Boss® SD-1 Super Overdrive</t>
   </si>
   <si>
-    <t>AIR VIBRATO</t>
-  </si>
-  <si>
     <t>GRAY COMP</t>
   </si>
   <si>
@@ -538,12 +538,12 @@
     <t>Avid® Custom EQ (Eleven Rack)</t>
   </si>
   <si>
+    <t>Boss® DD-5</t>
+  </si>
+  <si>
     <t>GATE</t>
   </si>
   <si>
-    <t>Boss® DD-5</t>
-  </si>
-  <si>
     <t>AUTOSWELL</t>
   </si>
   <si>
@@ -568,12 +568,12 @@
     <t>Avid® AIR Multichorus (Plug-in)</t>
   </si>
   <si>
+    <t>AIR REVERB</t>
+  </si>
+  <si>
     <t>Boss® CE-1 (Chorus Mode)</t>
   </si>
   <si>
-    <t>AIR REVERB</t>
-  </si>
-  <si>
     <t>FLANGER</t>
   </si>
   <si>
@@ -616,12 +616,12 @@
     <t>Mu-Tron® Phasor II</t>
   </si>
   <si>
+    <t>Detune (HeadRush® Original)</t>
+  </si>
+  <si>
     <t>STONE PHASER</t>
   </si>
   <si>
-    <t>Detune (HeadRush® Original)</t>
-  </si>
-  <si>
     <t>EHX ®Small Stone</t>
   </si>
   <si>
@@ -634,43 +634,43 @@
     <t>TREMOLO</t>
   </si>
   <si>
+    <t>Avid® Reverb One (Eleven Rack)</t>
+  </si>
+  <si>
     <t>OCTAVES</t>
   </si>
   <si>
-    <t>Avid® Reverb One (Eleven Rack)</t>
-  </si>
-  <si>
     <t>SMART HARM</t>
   </si>
   <si>
     <t>Smart Harmonizer (Headrush Original)</t>
   </si>
   <si>
+    <t>DROP TUNE</t>
+  </si>
+  <si>
     <t>TRON FILTER</t>
   </si>
   <si>
-    <t>DROP TUNE</t>
-  </si>
-  <si>
     <t>Boss® Acoustic Simulator</t>
   </si>
   <si>
+    <t>Octaves Up</t>
+  </si>
+  <si>
     <t>1 of 4 Distortion</t>
   </si>
   <si>
-    <t>Octaves Up</t>
-  </si>
-  <si>
     <t>OCTAVES UP (HeadRush® Original)</t>
   </si>
   <si>
     <t>DOD® FX25 Envelope Filter</t>
   </si>
   <si>
+    <t>REVERSE DELAY</t>
+  </si>
+  <si>
     <t>STEREO DOUBLER</t>
-  </si>
-  <si>
-    <t>REVERSE DELAY</t>
   </si>
   <si>
     <t>Stereo Doubler (HeadRush® Original)</t>
@@ -1167,13 +1167,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>232</v>
@@ -1190,7 +1190,7 @@
         <v>124</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5">
@@ -1201,10 +1201,10 @@
         <v>125</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5">
@@ -1215,7 +1215,7 @@
         <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -1224,10 +1224,10 @@
         <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -1239,7 +1239,7 @@
         <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -1251,7 +1251,7 @@
         <v>131</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1277,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>42</v>
@@ -1288,10 +1288,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>42</v>
@@ -1316,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>42</v>
@@ -1330,10 +1330,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>42</v>
@@ -1344,10 +1344,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>42</v>
@@ -1358,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>37</v>
@@ -1372,10 +1372,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>42</v>
@@ -1400,10 +1400,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>42</v>
@@ -1414,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>71</v>
@@ -1428,13 +1428,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5">
@@ -1448,7 +1448,7 @@
         <v>64</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5">
@@ -1459,10 +1459,10 @@
         <v>65</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5">
@@ -1470,10 +1470,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>42</v>
@@ -1484,10 +1484,10 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>42</v>
@@ -1512,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>73</v>
@@ -1526,10 +1526,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>233</v>
@@ -1543,10 +1543,10 @@
         <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.5">
@@ -1560,7 +1560,7 @@
         <v>68</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5">
@@ -1568,7 +1568,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>74</v>
@@ -1585,7 +1585,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>233</v>
@@ -1610,7 +1610,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>46</v>
@@ -1624,10 +1624,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>233</v>
@@ -1638,10 +1638,10 @@
         <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>233</v>
@@ -1676,10 +1676,10 @@
         <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>234</v>
@@ -1707,7 +1707,7 @@
         <v>114</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D40" s="4"/>
     </row>
@@ -1743,7 +1743,7 @@
         <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D43" s="4"/>
     </row>
@@ -1752,7 +1752,7 @@
         <v>33</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>92</v>
@@ -1783,7 +1783,7 @@
         <v>95</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>234</v>
@@ -1794,10 +1794,10 @@
         <v>36</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D47" s="4"/>
     </row>
@@ -1869,7 +1869,7 @@
         <v>106</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -1903,7 +1903,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1911,13 +1911,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
@@ -1940,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>137</v>
@@ -1964,10 +1964,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -1976,10 +1976,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -2003,7 +2003,7 @@
         <v>145</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -2015,7 +2015,7 @@
         <v>146</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -2024,7 +2024,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>149</v>
@@ -2039,7 +2039,7 @@
         <v>154</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -2051,7 +2051,7 @@
         <v>150</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="7"/>
     </row>
@@ -2063,7 +2063,7 @@
         <v>153</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -2084,10 +2084,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D16" s="8"/>
     </row>
@@ -2096,7 +2096,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>158</v>
@@ -2111,7 +2111,7 @@
         <v>157</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="7"/>
     </row>
@@ -2132,7 +2132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2141,7 +2141,8 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2154,13 +2155,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
@@ -2183,10 +2184,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -2207,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
@@ -2222,7 +2223,7 @@
         <v>165</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -2315,7 +2316,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2323,13 +2324,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
@@ -2340,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>179</v>
@@ -2352,10 +2353,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -2460,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>198</v>
@@ -2475,7 +2476,7 @@
         <v>201</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -2484,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>189</v>
@@ -2496,7 +2497,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>45</v>
@@ -2508,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>211</v>
@@ -2520,10 +2521,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7"/>
     </row>
@@ -2532,10 +2533,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="7"/>
     </row>
@@ -2556,10 +2557,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7"/>
     </row>
@@ -2580,10 +2581,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="7"/>
     </row>
@@ -2592,7 +2593,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>212</v>
@@ -2608,7 +2609,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2616,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2636,13 +2637,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
@@ -2653,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>215</v>
@@ -2665,7 +2666,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>216</v>
@@ -2680,7 +2681,7 @@
         <v>217</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -2689,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>218</v>
@@ -2713,7 +2714,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>221</v>
@@ -2737,7 +2738,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>222</v>
@@ -2761,10 +2762,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -2785,7 +2786,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>229</v>
@@ -2813,6 +2814,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\HeadrushMX5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC6078-5FA9-45BC-B402-6328CC7FF6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="11940"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMPLIFIER" sheetId="1" r:id="rId1"/>
@@ -12,11 +18,12 @@
     <sheet name="Dynamics" sheetId="3" r:id="rId3"/>
     <sheet name="Modulation" sheetId="4" r:id="rId4"/>
     <sheet name="REVERB" sheetId="5" r:id="rId5"/>
+    <sheet name="MyRigs" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">AMPLIFIER!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="238">
   <si>
     <t>Fender® Tweed Deluxe</t>
   </si>
@@ -745,8 +752,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,7 +763,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <color auto="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
     </font>
@@ -775,8 +781,15 @@
       <family val="3"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,7 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,15 +883,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -882,9 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -901,11 +914,32 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1167,17 +1201,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
@@ -1186,724 +1220,730 @@
     <col min="5" max="9" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="19.5">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5">
-      <c r="A3" s="4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5">
-      <c r="A4" s="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5">
-      <c r="A5" s="4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="19.5">
-      <c r="A6" s="4">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="19.5">
-      <c r="A7" s="4">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="19.5">
-      <c r="A8" s="4">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="19.5">
-      <c r="A9" s="4">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.5">
-      <c r="A10" s="4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5">
-      <c r="A11" s="4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19.5">
-      <c r="A12" s="4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.5">
-      <c r="A13" s="4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5">
-      <c r="A14" s="4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.5">
-      <c r="A15" s="4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.5">
-      <c r="A16" s="4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5">
-      <c r="A17" s="4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5">
-      <c r="A18" s="4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5">
-      <c r="A19" s="4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5">
-      <c r="A20" s="4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5">
-      <c r="A21" s="4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5">
-      <c r="A22" s="4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5">
-      <c r="A23" s="4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5">
-      <c r="A24" s="4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5">
-      <c r="A25" s="4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5">
-      <c r="A26" s="4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5">
-      <c r="A27" s="4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5">
-      <c r="A28" s="4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5">
-      <c r="A29" s="4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5">
-      <c r="A30" s="4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5">
-      <c r="A31" s="4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5">
-      <c r="A32" s="4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5">
-      <c r="A33" s="4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5">
-      <c r="A34" s="4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5">
-      <c r="A35" s="4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5">
-      <c r="A36" s="4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5">
-      <c r="A37" s="4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" ht="19.5">
-      <c r="A38" s="4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" ht="19.5">
-      <c r="A39" s="4">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5">
-      <c r="A40" s="4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5">
-      <c r="A41" s="4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" ht="19.5">
-      <c r="A42" s="4">
+      <c r="D41" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" ht="19.5">
-      <c r="A43" s="4">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" ht="19.5">
-      <c r="A44" s="4">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" ht="19.5">
-      <c r="A45" s="4">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="12">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5">
-      <c r="A46" s="4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5">
-      <c r="A47" s="4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5">
-      <c r="A48" s="4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" ht="19.5">
-      <c r="A49" s="4">
+      <c r="D48" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" ht="19.5">
-      <c r="A50" s="4">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" ht="19.5">
-      <c r="A51" s="4">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" ht="19.5">
-      <c r="A52" s="4">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="12">
         <v>50</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" ht="19.5">
-      <c r="A53" s="4">
+      <c r="D52" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" ht="19.5">
-      <c r="A54" s="4">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">
     <sortCondition ref="B2:B53"/>
   </sortState>
   <mergeCells count="1">
@@ -1911,7 +1951,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" fitToWidth="1" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C- &amp;P/&amp;N -</oddFooter>
   </headerFooter>
@@ -1919,14 +1959,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
@@ -1934,222 +1974,222 @@
     <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
     <sortCondition ref="A2:A17"/>
   </sortState>
   <mergeCells count="1">
@@ -2157,19 +2197,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -2178,150 +2218,150 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A3:D12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D12">
     <sortCondition ref="A3:A12"/>
   </sortState>
   <mergeCells count="1">
@@ -2329,19 +2369,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -2349,294 +2389,294 @@
     <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A3:D24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D24">
     <sortCondition ref="A3:A24"/>
   </sortState>
   <mergeCells count="1">
@@ -2644,19 +2684,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
@@ -2664,186 +2704,186 @@
     <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A3:D15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D15">
     <sortCondition ref="A3:A15"/>
   </sortState>
   <mergeCells count="1">
@@ -2851,6 +2891,210 @@
   </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C0C6B6-9797-466D-A2C6-3F51D56B5692}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="12">
+        <v>11</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12">
+        <v>20</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="12">
+        <v>22</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="12">
+        <v>25</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="12">
+        <v>30</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="12">
+        <v>36</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12">
+        <v>39</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="12">
+        <v>43</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="12">
+        <v>46</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="12">
+        <v>50</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\HeadrushMX5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC6078-5FA9-45BC-B402-6328CC7FF6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D610648-D606-4B1F-BDC5-183938DD8B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,17 +914,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,12 +1230,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1243,16 +1252,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1333,16 +1342,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1375,16 +1384,16 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1501,16 +1510,16 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1529,16 +1538,16 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1571,16 +1580,16 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="12">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -1641,16 +1650,16 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="12">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -1723,16 +1732,16 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="12">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="13"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
@@ -1763,16 +1772,16 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="12">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -1813,16 +1822,16 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="12">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="11" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1855,16 +1864,16 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="12">
+      <c r="A48" s="10">
         <v>46</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1905,16 +1914,16 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="12">
+      <c r="A52" s="10">
         <v>50</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -1963,7 +1972,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1975,12 +1984,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -1997,28 +2006,28 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
@@ -2033,28 +2042,28 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
@@ -2069,100 +2078,100 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="6">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
@@ -2206,7 +2215,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2219,12 +2228,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
@@ -2241,40 +2250,40 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
@@ -2289,16 +2298,16 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
@@ -2337,16 +2346,16 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
@@ -2378,7 +2387,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2390,12 +2399,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
@@ -2424,16 +2433,16 @@
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
@@ -2496,28 +2505,28 @@
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
@@ -2568,16 +2577,16 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
@@ -2693,7 +2702,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2705,12 +2714,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
@@ -2739,40 +2748,40 @@
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
@@ -2927,168 +2936,168 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>8</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>11</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>20</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>22</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>25</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>30</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>36</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>39</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>43</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>46</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>50</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>234</v>
       </c>
     </row>
